--- a/documents/팀프로젝트/아키텍처 설계/algo URL매핑정책_20200330.xlsx
+++ b/documents/팀프로젝트/아키텍처 설계/algo URL매핑정책_20200330.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Projects\hyeonuk_s_lab\JavaSWEngineeringCourse\documents\팀프로젝트\아키텍처 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C2E5FC4-2A7C-423D-AACB-896DF4FF4A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107BD4D6-8268-48E9-9FB0-7567F14A509B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="memberDAO IF" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="466">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1156,10 +1156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도전과제 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unitNum, quizNum, quizVO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1328,10 +1324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChallengeVO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/content/learning/unit/editor/{unitNum}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1340,10 +1332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/content/challenge/edit/{cNum}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/content/challenge/editor/{cNum}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1668,10 +1656,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ContentManagingService.createChallenge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ContentManagingService.deleteChallenge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1685,10 +1669,6 @@
   </si>
   <si>
     <t>ContentManagingService.getCaseList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContentManagingService.createCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1808,6 +1788,66 @@
   <si>
     <t>ChallengeService.testSolution
 CodeTester.doTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContentManagingService.updateChallengeTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 케이스 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content/challenge/case/{caseNum}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContentManagingService.getCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChallengeDAO.selectOneCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContentManagingService.createEmptyChallenge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContentManagingService.createEmptyCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도전과제 제목 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cNum. Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/content/challenge/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChallengeVO(JSON)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChallengeCaseVO(JSON)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2026,18 +2066,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2047,25 +2075,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3141,14 +3181,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="E4" s="15" t="s">
+      <c r="C4" s="18"/>
+      <c r="E4" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -3213,14 +3253,14 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="E11" s="14" t="s">
+      <c r="C11" s="17"/>
+      <c r="E11" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3630,11 +3670,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3650,7 +3690,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>242</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3696,10 +3736,10 @@
         <v>151</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
@@ -3719,10 +3759,10 @@
         <v>151</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>152</v>
@@ -3747,7 +3787,7 @@
         <v>154</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>155</v>
@@ -3759,7 +3799,7 @@
         <v>207</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>225</v>
@@ -3771,25 +3811,25 @@
         <v>157</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>208</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -3798,10 +3838,10 @@
         <v>158</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>14</v>
@@ -3811,7 +3851,7 @@
         <v>209</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>225</v>
@@ -3838,7 +3878,7 @@
         <v>208</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I8" s="4"/>
     </row>
@@ -3848,10 +3888,10 @@
         <v>236</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>196</v>
@@ -3871,10 +3911,10 @@
         <v>159</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>163</v>
@@ -3884,7 +3924,7 @@
         <v>210</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>225</v>
@@ -3896,10 +3936,10 @@
         <v>165</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>166</v>
@@ -3911,7 +3951,7 @@
         <v>208</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>239</v>
@@ -3923,10 +3963,10 @@
         <v>164</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>16</v>
@@ -3936,7 +3976,7 @@
         <v>211</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>225</v>
@@ -3967,7 +4007,7 @@
         <v>170</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>213</v>
@@ -3988,13 +4028,13 @@
         <v>179</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>169</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>215</v>
@@ -4021,7 +4061,7 @@
         <v>173</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>217</v>
@@ -4048,7 +4088,7 @@
         <v>174</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>219</v>
@@ -4075,7 +4115,7 @@
         <v>170</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>221</v>
@@ -4102,7 +4142,7 @@
         <v>173</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>223</v>
@@ -4125,7 +4165,7 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="22" t="s">
         <v>181</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -4139,16 +4179,16 @@
         <v>196</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="8" t="s">
         <v>180</v>
       </c>
@@ -4162,20 +4202,20 @@
         <v>199</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="8" t="s">
         <v>234</v>
       </c>
@@ -4187,22 +4227,22 @@
         <v>196</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>240</v>
@@ -4214,20 +4254,20 @@
         <v>199</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="8" t="s">
         <v>255</v>
       </c>
@@ -4248,7 +4288,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="8" t="s">
         <v>253</v>
       </c>
@@ -4265,19 +4305,19 @@
         <v>232</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="20" t="s">
-        <v>352</v>
+      <c r="A27" s="22"/>
+      <c r="B27" s="16" t="s">
+        <v>349</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>226</v>
@@ -4287,18 +4327,18 @@
         <v>196</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="20" t="s">
-        <v>351</v>
+      <c r="A28" s="22"/>
+      <c r="B28" s="16" t="s">
+        <v>348</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>244</v>
@@ -4310,21 +4350,21 @@
         <v>199</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="16" t="s">
         <v>204</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4335,21 +4375,21 @@
         <v>196</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="16" t="s">
         <v>246</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -4362,21 +4402,21 @@
         <v>277</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -4386,10 +4426,10 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="16" t="s">
         <v>263</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -4400,16 +4440,16 @@
         <v>196</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="16" t="s">
         <v>264</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -4420,21 +4460,21 @@
         <v>196</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="16" t="s">
         <v>269</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -4447,21 +4487,21 @@
         <v>275</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="16" t="s">
         <v>273</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -4474,21 +4514,21 @@
         <v>199</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="20" t="s">
+      <c r="A36" s="24"/>
+      <c r="B36" s="16" t="s">
         <v>270</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -4501,25 +4541,25 @@
         <v>277</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="20" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="16" t="s">
         <v>265</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>267</v>
@@ -4528,21 +4568,21 @@
         <v>196</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="24"/>
+      <c r="B38" s="16" t="s">
         <v>279</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -4555,21 +4595,21 @@
         <v>199</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="20" t="s">
+      <c r="A39" s="24"/>
+      <c r="B39" s="16" t="s">
         <v>280</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -4582,21 +4622,21 @@
         <v>275</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="24"/>
+      <c r="B40" s="16" t="s">
         <v>281</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -4609,25 +4649,25 @@
         <v>277</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="24"/>
+      <c r="B41" s="16" t="s">
         <v>268</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>203</v>
@@ -4636,48 +4676,48 @@
         <v>196</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="20" t="s">
+      <c r="A42" s="24"/>
+      <c r="B42" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>199</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="20" t="s">
+      <c r="A43" s="24"/>
+      <c r="B43" s="16" t="s">
         <v>271</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -4690,21 +4730,21 @@
         <v>196</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="20" t="s">
+      <c r="A44" s="24"/>
+      <c r="B44" s="16" t="s">
         <v>272</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -4717,21 +4757,21 @@
         <v>199</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="20" t="s">
+      <c r="A45" s="24"/>
+      <c r="B45" s="16" t="s">
         <v>284</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -4744,156 +4784,156 @@
         <v>275</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="20" t="s">
+      <c r="A46" s="24"/>
+      <c r="B46" s="16" t="s">
         <v>285</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>277</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="20" t="s">
-        <v>299</v>
+      <c r="A47" s="24"/>
+      <c r="B47" s="16" t="s">
+        <v>298</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="20" t="s">
-        <v>296</v>
+      <c r="A48" s="24"/>
+      <c r="B48" s="16" t="s">
+        <v>295</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>199</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="20" t="s">
-        <v>400</v>
+      <c r="A49" s="24"/>
+      <c r="B49" s="16" t="s">
+        <v>397</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>275</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="20" t="s">
-        <v>401</v>
+      <c r="A50" s="24"/>
+      <c r="B50" s="16" t="s">
+        <v>398</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>277</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4903,470 +4943,484 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="20" t="s">
+      <c r="A52" s="24"/>
+      <c r="B52" s="16" t="s">
         <v>291</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
-      <c r="B53" s="20" t="s">
-        <v>410</v>
+      <c r="A53" s="24"/>
+      <c r="B53" s="16" t="s">
+        <v>407</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="20" t="s">
+      <c r="A54" s="24"/>
+      <c r="B54" s="16" t="s">
         <v>292</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
         <v>199</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="20" t="s">
+      <c r="A55" s="24"/>
+      <c r="B55" s="16" t="s">
         <v>293</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D55" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="E55" s="2" t="s">
         <v>275</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="20" t="s">
-        <v>294</v>
+      <c r="A56" s="24"/>
+      <c r="B56" s="16" t="s">
+        <v>461</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>462</v>
+      </c>
       <c r="E56" s="2" t="s">
         <v>277</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="20" t="s">
-        <v>331</v>
+      <c r="A57" s="24"/>
+      <c r="B57" s="16" t="s">
+        <v>330</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D57" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="E57" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="20" t="s">
-        <v>332</v>
+      <c r="A58" s="24"/>
+      <c r="B58" s="16" t="s">
+        <v>331</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>339</v>
+        <v>463</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>336</v>
+        <v>464</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="20" t="s">
-        <v>327</v>
+      <c r="A59" s="24"/>
+      <c r="B59" s="16" t="s">
+        <v>326</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D59" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="E59" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="20" t="s">
-        <v>328</v>
+      <c r="A60" s="24"/>
+      <c r="B60" s="16" t="s">
+        <v>454</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D60" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>453</v>
+      </c>
       <c r="E60" s="2" t="s">
-        <v>199</v>
+        <v>456</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="20" t="s">
-        <v>329</v>
+      <c r="A61" s="24"/>
+      <c r="B61" s="16" t="s">
+        <v>327</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D61" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="E61" s="2" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="20" t="s">
-        <v>330</v>
+      <c r="A62" s="24"/>
+      <c r="B62" s="16" t="s">
+        <v>328</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D62" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>453</v>
+      </c>
       <c r="E62" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="23" t="s">
+      <c r="A63" s="24"/>
+      <c r="B63" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B65" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D65" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
-      <c r="B65" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F65" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="26"/>
+      <c r="B66" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="26"/>
+      <c r="B67" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="27"/>
+      <c r="B68" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
-      <c r="B66" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="24"/>
-      <c r="B67" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I67" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-    </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B70" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="16"/>
-      <c r="B70" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="16"/>
-      <c r="B71" s="20" t="s">
-        <v>194</v>
+      <c r="A71" s="26"/>
+      <c r="B71" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>203</v>
@@ -5375,126 +5429,142 @@
         <v>196</v>
       </c>
       <c r="F71" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="26"/>
+      <c r="B72" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="27"/>
+      <c r="B73" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="24"/>
-      <c r="B72" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="I72" s="4" t="s">
+      <c r="H73" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I73" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-    </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="B74" s="20" t="s">
+      <c r="A74" s="2"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B75" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
-      <c r="B75" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I75" s="4" t="s">
+      <c r="I75" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="20"/>
+      <c r="B76" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5503,14 +5573,25 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A75:A76"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A21:A30"/>
-    <mergeCell ref="A32:A62"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A32:A63"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A65:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
